--- a/src/com/qtpselenium/xls/C Suite.xlsx
+++ b/src/com/qtpselenium/xls/C Suite.xlsx
@@ -10,13 +10,14 @@
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
     <sheet name="Test Steps" sheetId="2" r:id="rId2"/>
     <sheet name="SampleTest" sheetId="3" r:id="rId3"/>
+    <sheet name="SampleTwo" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="54">
   <si>
     <t>TCID</t>
   </si>
@@ -27,103 +28,157 @@
     <t>Runmode</t>
   </si>
   <si>
+    <t>SampleTest</t>
+  </si>
+  <si>
+    <t>Login Positive</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>SampleTwo</t>
+  </si>
+  <si>
+    <t>Login Negative</t>
+  </si>
+  <si>
+    <t>TSID</t>
+  </si>
+  <si>
+    <t>Keyword</t>
+  </si>
+  <si>
+    <t>Object</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Proceed_on_Failure</t>
+  </si>
+  <si>
+    <t>Result1</t>
+  </si>
+  <si>
+    <t>Open Browser</t>
+  </si>
+  <si>
+    <t>openBrowser</t>
+  </si>
+  <si>
+    <t>browserType</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>Navigate</t>
+  </si>
+  <si>
+    <t>navigate</t>
+  </si>
+  <si>
+    <t>testBaseURL</t>
+  </si>
+  <si>
+    <t>Click Button</t>
+  </si>
+  <si>
+    <t>clickButton</t>
+  </si>
+  <si>
+    <t>close_button</t>
+  </si>
+  <si>
+    <t>Click Link</t>
+  </si>
+  <si>
+    <t>clickLink</t>
+  </si>
+  <si>
+    <t>login_link</t>
+  </si>
+  <si>
+    <t>Send Input text</t>
+  </si>
+  <si>
+    <t>writeInInput</t>
+  </si>
+  <si>
+    <t>login_username</t>
+  </si>
+  <si>
+    <t>col |username</t>
+  </si>
+  <si>
+    <t>login_password</t>
+  </si>
+  <si>
+    <t>col |password</t>
+  </si>
+  <si>
+    <t>Verify Link Text</t>
+  </si>
+  <si>
+    <t>verifyLinkText</t>
+  </si>
+  <si>
+    <t>new_to_flpkrt_link</t>
+  </si>
+  <si>
+    <t>new_to_flpkrt_text</t>
+  </si>
+  <si>
+    <t>PASSNew to Flipkart? Create an account</t>
+  </si>
+  <si>
+    <t>login_button</t>
+  </si>
+  <si>
+    <t>Verify Login</t>
+  </si>
+  <si>
+    <t>verifyLogin</t>
+  </si>
+  <si>
+    <t>login_success</t>
+  </si>
+  <si>
+    <t>login_success_txt</t>
+  </si>
+  <si>
+    <t>Close Driver</t>
+  </si>
+  <si>
+    <t>closeBrowser</t>
+  </si>
+  <si>
+    <t>login_error_msg</t>
+  </si>
+  <si>
+    <t>login_err_text</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
     <t>Result</t>
   </si>
   <si>
-    <t>SampleTest</t>
-  </si>
-  <si>
-    <t>Sample description</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>TSID</t>
-  </si>
-  <si>
-    <t>Keyword</t>
-  </si>
-  <si>
-    <t>Object</t>
-  </si>
-  <si>
-    <t>Data</t>
-  </si>
-  <si>
-    <t>Proceed_on_Failure</t>
-  </si>
-  <si>
-    <t>Open Browser</t>
-  </si>
-  <si>
-    <t>openBrowser</t>
-  </si>
-  <si>
-    <t>browserType</t>
-  </si>
-  <si>
-    <t>Navigate</t>
-  </si>
-  <si>
-    <t>navigate</t>
-  </si>
-  <si>
-    <t>testBaseURL</t>
-  </si>
-  <si>
-    <t>Click Button</t>
-  </si>
-  <si>
-    <t>clickButton</t>
-  </si>
-  <si>
-    <t>close_button</t>
-  </si>
-  <si>
-    <t>Click Link</t>
-  </si>
-  <si>
-    <t>clickLink</t>
-  </si>
-  <si>
-    <t>login_link</t>
-  </si>
-  <si>
-    <t>Send Input text</t>
-  </si>
-  <si>
-    <t>writeInInput</t>
-  </si>
-  <si>
-    <t>login_username</t>
-  </si>
-  <si>
-    <t>col |username</t>
-  </si>
-  <si>
-    <t>login_password</t>
-  </si>
-  <si>
-    <t>col |password</t>
-  </si>
-  <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
     <t>itsthakur@gmail.com</t>
   </si>
   <si>
     <t>pass@1234</t>
   </si>
   <si>
-    <t>PASS</t>
-  </si>
-  <si>
-    <t>Result1</t>
+    <t>bac@dfg</t>
+  </si>
+  <si>
+    <t>123pass</t>
   </si>
 </sst>
 </file>
@@ -133,8 +188,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -155,7 +210,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -165,6 +228,74 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -177,22 +308,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -200,75 +323,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -281,13 +343,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -304,19 +359,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -328,67 +515,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -400,91 +533,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -509,26 +564,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -566,6 +601,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -590,8 +634,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -610,18 +654,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -634,136 +689,135 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="7" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1083,19 +1137,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="20.0" collapsed="true"/>
     <col min="2" max="2" customWidth="true" width="23.1428571428571" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1105,21 +1159,28 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="3" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="3"/>
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1130,157 +1191,403 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="14.0" collapsed="true"/>
     <col min="2" max="2" customWidth="true" width="22.8571428571429" collapsed="true"/>
     <col min="3" max="3" customWidth="true" width="18.4285714285714" collapsed="true"/>
     <col min="4" max="4" customWidth="true" width="18.1428571428571" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.7142857142857" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="19.4285714285714" collapsed="true"/>
     <col min="6" max="6" customWidth="true" width="18.2857142857143" collapsed="true"/>
     <col min="7" max="7" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="7.69921875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="36.9453125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" t="s" s="4">
+        <v>12</v>
+      </c>
+      <c r="H1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="F8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" t="s">
+        <v>44</v>
+      </c>
+      <c r="H11"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
         <v>14</v>
       </c>
-      <c r="H2" t="s">
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" t="s">
+        <v>30</v>
+      </c>
+      <c r="H16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" t="s">
+        <v>32</v>
+      </c>
+      <c r="H17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="E18" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18" t="s">
+        <v>36</v>
+      </c>
+      <c r="H18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" t="s">
+        <v>38</v>
+      </c>
+      <c r="H19" t="s">
         <v>17</v>
       </c>
-      <c r="H3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H7" t="s">
-        <v>34</v>
-      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" t="s">
+        <v>44</v>
+      </c>
+      <c r="H21"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1294,7 +1601,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="3"/>
@@ -1302,35 +1609,36 @@
     <col min="1" max="1" customWidth="true" width="24.8571428571429" collapsed="true"/>
     <col min="2" max="2" customWidth="true" width="19.1428571428571" collapsed="true"/>
     <col min="3" max="3" customWidth="true" width="12.7142857142857" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="6.5859375" collapsed="true" bestFit="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="36.9453125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="38.2857142857143" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1341,4 +1649,58 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="20.2857142857143" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.2857142857143" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="6.5859375" collapsed="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="bac@dfg" tooltip="mailto:bac@dfg"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>